--- a/biology/Botanique/Prince_Napoléon_(poire)/Prince_Napoléon_(poire).xlsx
+++ b/biology/Botanique/Prince_Napoléon_(poire)/Prince_Napoléon_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 'Prince Napoléon' est une variété de poire. Elle doit son nom au prince Napoléon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Napoléon.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété est obtenue en 1864 par Louis Boisbunel, à Rouen, à la suite d'un semis de 'Passe-Crassane'[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété est obtenue en 1864 par Louis Boisbunel, à Rouen, à la suite d'un semis de 'Passe-Crassane'.
 </t>
         </is>
       </c>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme porte-greffe, le cognassier convient beaucoup à ce poirier[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme porte-greffe, le cognassier convient beaucoup à ce poirier.
 </t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chair est sucrée et très agréablement parfumée.
 </t>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,9 +654,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De taille moyenne et quelquefois plus volumineuse, le fruit est de forme globuleuse et souvent mamelonnée au sommet[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De taille moyenne et quelquefois plus volumineuse, le fruit est de forme globuleuse et souvent mamelonnée au sommet.
 L'œil est petit, mi-clos, faiblement enfoncé.
 </t>
         </is>
@@ -648,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prince_Napol%C3%A9on_(poire)</t>
+          <t>Prince_Napoléon_(poire)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,9 +688,11 @@
           <t>Maturité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De février à la fin mars[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De février à la fin mars.
 </t>
         </is>
       </c>
